--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3339.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3339.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.138631206992069</v>
+        <v>1.60230016708374</v>
       </c>
       <c r="B1">
-        <v>2.720695336341371</v>
+        <v>4.174076080322266</v>
       </c>
       <c r="C1">
-        <v>8.126923238846345</v>
+        <v>3.308237314224243</v>
       </c>
       <c r="D1">
-        <v>2.177743927668492</v>
+        <v>2.019135475158691</v>
       </c>
       <c r="E1">
-        <v>1.238479600595676</v>
+        <v>0.7408944368362427</v>
       </c>
     </row>
   </sheetData>
